--- a/Андреєв_етап3.xlsx
+++ b/Андреєв_етап3.xlsx
@@ -426,105 +426,105 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
-    <col width="20" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
-    <col width="20" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
-    <col width="20" customWidth="1" min="29" max="29"/>
-    <col width="20" customWidth="1" min="30" max="30"/>
-    <col width="20" customWidth="1" min="31" max="31"/>
-    <col width="20" customWidth="1" min="32" max="32"/>
-    <col width="20" customWidth="1" min="33" max="33"/>
-    <col width="20" customWidth="1" min="34" max="34"/>
-    <col width="20" customWidth="1" min="35" max="35"/>
-    <col width="20" customWidth="1" min="36" max="36"/>
-    <col width="20" customWidth="1" min="37" max="37"/>
-    <col width="20" customWidth="1" min="38" max="38"/>
-    <col width="20" customWidth="1" min="39" max="39"/>
-    <col width="20" customWidth="1" min="40" max="40"/>
-    <col width="20" customWidth="1" min="41" max="41"/>
-    <col width="20" customWidth="1" min="42" max="42"/>
-    <col width="20" customWidth="1" min="43" max="43"/>
-    <col width="20" customWidth="1" min="44" max="44"/>
-    <col width="20" customWidth="1" min="45" max="45"/>
-    <col width="20" customWidth="1" min="46" max="46"/>
-    <col width="20" customWidth="1" min="47" max="47"/>
-    <col width="20" customWidth="1" min="48" max="48"/>
-    <col width="20" customWidth="1" min="49" max="49"/>
-    <col width="20" customWidth="1" min="50" max="50"/>
-    <col width="20" customWidth="1" min="51" max="51"/>
-    <col width="20" customWidth="1" min="52" max="52"/>
-    <col width="20" customWidth="1" min="53" max="53"/>
-    <col width="20" customWidth="1" min="54" max="54"/>
-    <col width="20" customWidth="1" min="55" max="55"/>
-    <col width="20" customWidth="1" min="56" max="56"/>
-    <col width="20" customWidth="1" min="57" max="57"/>
-    <col width="20" customWidth="1" min="58" max="58"/>
-    <col width="20" customWidth="1" min="59" max="59"/>
-    <col width="20" customWidth="1" min="60" max="60"/>
-    <col width="20" customWidth="1" min="61" max="61"/>
-    <col width="20" customWidth="1" min="62" max="62"/>
-    <col width="20" customWidth="1" min="63" max="63"/>
-    <col width="20" customWidth="1" min="64" max="64"/>
-    <col width="20" customWidth="1" min="65" max="65"/>
-    <col width="20" customWidth="1" min="66" max="66"/>
-    <col width="20" customWidth="1" min="67" max="67"/>
-    <col width="20" customWidth="1" min="68" max="68"/>
-    <col width="20" customWidth="1" min="69" max="69"/>
-    <col width="20" customWidth="1" min="70" max="70"/>
-    <col width="20" customWidth="1" min="71" max="71"/>
-    <col width="20" customWidth="1" min="72" max="72"/>
-    <col width="20" customWidth="1" min="73" max="73"/>
-    <col width="20" customWidth="1" min="74" max="74"/>
-    <col width="20" customWidth="1" min="75" max="75"/>
-    <col width="20" customWidth="1" min="76" max="76"/>
-    <col width="20" customWidth="1" min="77" max="77"/>
-    <col width="20" customWidth="1" min="78" max="78"/>
-    <col width="20" customWidth="1" min="79" max="79"/>
-    <col width="20" customWidth="1" min="80" max="80"/>
-    <col width="20" customWidth="1" min="81" max="81"/>
-    <col width="20" customWidth="1" min="82" max="82"/>
-    <col width="20" customWidth="1" min="83" max="83"/>
-    <col width="20" customWidth="1" min="84" max="84"/>
-    <col width="20" customWidth="1" min="85" max="85"/>
-    <col width="20" customWidth="1" min="86" max="86"/>
-    <col width="20" customWidth="1" min="87" max="87"/>
-    <col width="20" customWidth="1" min="88" max="88"/>
-    <col width="20" customWidth="1" min="89" max="89"/>
-    <col width="20" customWidth="1" min="90" max="90"/>
-    <col width="20" customWidth="1" min="91" max="91"/>
-    <col width="20" customWidth="1" min="92" max="92"/>
-    <col width="20" customWidth="1" min="93" max="93"/>
-    <col width="20" customWidth="1" min="94" max="94"/>
-    <col width="20" customWidth="1" min="95" max="95"/>
-    <col width="20" customWidth="1" min="96" max="96"/>
-    <col width="20" customWidth="1" min="97" max="97"/>
-    <col width="20" customWidth="1" min="98" max="98"/>
-    <col width="20" customWidth="1" min="99" max="99"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="25" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="25" customWidth="1" min="16" max="16"/>
+    <col width="25" customWidth="1" min="17" max="17"/>
+    <col width="25" customWidth="1" min="18" max="18"/>
+    <col width="25" customWidth="1" min="19" max="19"/>
+    <col width="25" customWidth="1" min="20" max="20"/>
+    <col width="25" customWidth="1" min="21" max="21"/>
+    <col width="25" customWidth="1" min="22" max="22"/>
+    <col width="25" customWidth="1" min="23" max="23"/>
+    <col width="25" customWidth="1" min="24" max="24"/>
+    <col width="25" customWidth="1" min="25" max="25"/>
+    <col width="25" customWidth="1" min="26" max="26"/>
+    <col width="25" customWidth="1" min="27" max="27"/>
+    <col width="25" customWidth="1" min="28" max="28"/>
+    <col width="25" customWidth="1" min="29" max="29"/>
+    <col width="25" customWidth="1" min="30" max="30"/>
+    <col width="25" customWidth="1" min="31" max="31"/>
+    <col width="25" customWidth="1" min="32" max="32"/>
+    <col width="25" customWidth="1" min="33" max="33"/>
+    <col width="25" customWidth="1" min="34" max="34"/>
+    <col width="25" customWidth="1" min="35" max="35"/>
+    <col width="25" customWidth="1" min="36" max="36"/>
+    <col width="25" customWidth="1" min="37" max="37"/>
+    <col width="25" customWidth="1" min="38" max="38"/>
+    <col width="25" customWidth="1" min="39" max="39"/>
+    <col width="25" customWidth="1" min="40" max="40"/>
+    <col width="25" customWidth="1" min="41" max="41"/>
+    <col width="25" customWidth="1" min="42" max="42"/>
+    <col width="25" customWidth="1" min="43" max="43"/>
+    <col width="25" customWidth="1" min="44" max="44"/>
+    <col width="25" customWidth="1" min="45" max="45"/>
+    <col width="25" customWidth="1" min="46" max="46"/>
+    <col width="25" customWidth="1" min="47" max="47"/>
+    <col width="25" customWidth="1" min="48" max="48"/>
+    <col width="25" customWidth="1" min="49" max="49"/>
+    <col width="25" customWidth="1" min="50" max="50"/>
+    <col width="25" customWidth="1" min="51" max="51"/>
+    <col width="25" customWidth="1" min="52" max="52"/>
+    <col width="25" customWidth="1" min="53" max="53"/>
+    <col width="25" customWidth="1" min="54" max="54"/>
+    <col width="25" customWidth="1" min="55" max="55"/>
+    <col width="25" customWidth="1" min="56" max="56"/>
+    <col width="25" customWidth="1" min="57" max="57"/>
+    <col width="25" customWidth="1" min="58" max="58"/>
+    <col width="25" customWidth="1" min="59" max="59"/>
+    <col width="25" customWidth="1" min="60" max="60"/>
+    <col width="25" customWidth="1" min="61" max="61"/>
+    <col width="25" customWidth="1" min="62" max="62"/>
+    <col width="25" customWidth="1" min="63" max="63"/>
+    <col width="25" customWidth="1" min="64" max="64"/>
+    <col width="25" customWidth="1" min="65" max="65"/>
+    <col width="25" customWidth="1" min="66" max="66"/>
+    <col width="25" customWidth="1" min="67" max="67"/>
+    <col width="25" customWidth="1" min="68" max="68"/>
+    <col width="25" customWidth="1" min="69" max="69"/>
+    <col width="25" customWidth="1" min="70" max="70"/>
+    <col width="25" customWidth="1" min="71" max="71"/>
+    <col width="25" customWidth="1" min="72" max="72"/>
+    <col width="25" customWidth="1" min="73" max="73"/>
+    <col width="25" customWidth="1" min="74" max="74"/>
+    <col width="25" customWidth="1" min="75" max="75"/>
+    <col width="25" customWidth="1" min="76" max="76"/>
+    <col width="25" customWidth="1" min="77" max="77"/>
+    <col width="25" customWidth="1" min="78" max="78"/>
+    <col width="25" customWidth="1" min="79" max="79"/>
+    <col width="25" customWidth="1" min="80" max="80"/>
+    <col width="25" customWidth="1" min="81" max="81"/>
+    <col width="25" customWidth="1" min="82" max="82"/>
+    <col width="25" customWidth="1" min="83" max="83"/>
+    <col width="25" customWidth="1" min="84" max="84"/>
+    <col width="25" customWidth="1" min="85" max="85"/>
+    <col width="25" customWidth="1" min="86" max="86"/>
+    <col width="25" customWidth="1" min="87" max="87"/>
+    <col width="25" customWidth="1" min="88" max="88"/>
+    <col width="25" customWidth="1" min="89" max="89"/>
+    <col width="25" customWidth="1" min="90" max="90"/>
+    <col width="25" customWidth="1" min="91" max="91"/>
+    <col width="25" customWidth="1" min="92" max="92"/>
+    <col width="25" customWidth="1" min="93" max="93"/>
+    <col width="25" customWidth="1" min="94" max="94"/>
+    <col width="25" customWidth="1" min="95" max="95"/>
+    <col width="25" customWidth="1" min="96" max="96"/>
+    <col width="25" customWidth="1" min="97" max="97"/>
+    <col width="25" customWidth="1" min="98" max="98"/>
+    <col width="25" customWidth="1" min="99" max="99"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -641,10 +641,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>2</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -845,7 +845,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -1126,7 +1126,7 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B12" t="n">
         <v>5</v>
@@ -1342,7 +1342,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1389,7 +1389,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" t="n">
         <v>3</v>
@@ -1428,7 +1428,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -1729,7 +1729,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -1839,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -1851,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -1865,50 +1865,50 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>3</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1</v>
-      </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -2681,7 +2681,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -2749,7 +2749,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -2788,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2953,10 +2953,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -3030,7 +3030,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" t="n">
         <v>2</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3769,7 +3769,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B48" t="n">
         <v>2</v>
@@ -3837,10 +3837,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3905,10 +3905,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -3929,7 +3929,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -4109,16 +4109,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" t="n">
         <v>1</v>
@@ -4139,10 +4139,10 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -4245,7 +4245,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -4381,7 +4381,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -4585,10 +4585,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -4789,7 +4789,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B63" t="n">
         <v>2</v>
@@ -4857,7 +4857,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -4925,10 +4925,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
@@ -4946,10 +4946,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -5079,7 +5079,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5129,10 +5129,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B70" t="n">
         <v>2</v>
@@ -5333,7 +5333,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -5673,7 +5673,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -5877,7 +5877,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -5945,7 +5945,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B82" t="n">
         <v>1</v>
@@ -6096,7 +6096,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -6217,7 +6217,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -6285,7 +6285,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
@@ -6297,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -6421,7 +6421,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
@@ -6693,7 +6693,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -6761,7 +6761,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -6948,7 +6948,7 @@
         <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -7069,7 +7069,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -7081,7 +7081,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -7101,7 +7101,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -7237,7 +7237,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -7255,7 +7255,7 @@
         <v>2</v>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7288,7 +7288,7 @@
         <v>1</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
@@ -7322,105 +7322,105 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="20" customWidth="1" min="9" max="9"/>
-    <col width="20" customWidth="1" min="10" max="10"/>
-    <col width="20" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="20" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="20" customWidth="1" min="17" max="17"/>
-    <col width="20" customWidth="1" min="18" max="18"/>
-    <col width="20" customWidth="1" min="19" max="19"/>
-    <col width="20" customWidth="1" min="20" max="20"/>
-    <col width="20" customWidth="1" min="21" max="21"/>
-    <col width="20" customWidth="1" min="22" max="22"/>
-    <col width="20" customWidth="1" min="23" max="23"/>
-    <col width="20" customWidth="1" min="24" max="24"/>
-    <col width="20" customWidth="1" min="25" max="25"/>
-    <col width="20" customWidth="1" min="26" max="26"/>
-    <col width="20" customWidth="1" min="27" max="27"/>
-    <col width="20" customWidth="1" min="28" max="28"/>
-    <col width="20" customWidth="1" min="29" max="29"/>
-    <col width="20" customWidth="1" min="30" max="30"/>
-    <col width="20" customWidth="1" min="31" max="31"/>
-    <col width="20" customWidth="1" min="32" max="32"/>
-    <col width="20" customWidth="1" min="33" max="33"/>
-    <col width="20" customWidth="1" min="34" max="34"/>
-    <col width="20" customWidth="1" min="35" max="35"/>
-    <col width="20" customWidth="1" min="36" max="36"/>
-    <col width="20" customWidth="1" min="37" max="37"/>
-    <col width="20" customWidth="1" min="38" max="38"/>
-    <col width="20" customWidth="1" min="39" max="39"/>
-    <col width="20" customWidth="1" min="40" max="40"/>
-    <col width="20" customWidth="1" min="41" max="41"/>
-    <col width="20" customWidth="1" min="42" max="42"/>
-    <col width="20" customWidth="1" min="43" max="43"/>
-    <col width="20" customWidth="1" min="44" max="44"/>
-    <col width="20" customWidth="1" min="45" max="45"/>
-    <col width="20" customWidth="1" min="46" max="46"/>
-    <col width="20" customWidth="1" min="47" max="47"/>
-    <col width="20" customWidth="1" min="48" max="48"/>
-    <col width="20" customWidth="1" min="49" max="49"/>
-    <col width="20" customWidth="1" min="50" max="50"/>
-    <col width="20" customWidth="1" min="51" max="51"/>
-    <col width="20" customWidth="1" min="52" max="52"/>
-    <col width="20" customWidth="1" min="53" max="53"/>
-    <col width="20" customWidth="1" min="54" max="54"/>
-    <col width="20" customWidth="1" min="55" max="55"/>
-    <col width="20" customWidth="1" min="56" max="56"/>
-    <col width="20" customWidth="1" min="57" max="57"/>
-    <col width="20" customWidth="1" min="58" max="58"/>
-    <col width="20" customWidth="1" min="59" max="59"/>
-    <col width="20" customWidth="1" min="60" max="60"/>
-    <col width="20" customWidth="1" min="61" max="61"/>
-    <col width="20" customWidth="1" min="62" max="62"/>
-    <col width="20" customWidth="1" min="63" max="63"/>
-    <col width="20" customWidth="1" min="64" max="64"/>
-    <col width="20" customWidth="1" min="65" max="65"/>
-    <col width="20" customWidth="1" min="66" max="66"/>
-    <col width="20" customWidth="1" min="67" max="67"/>
-    <col width="20" customWidth="1" min="68" max="68"/>
-    <col width="20" customWidth="1" min="69" max="69"/>
-    <col width="20" customWidth="1" min="70" max="70"/>
-    <col width="20" customWidth="1" min="71" max="71"/>
-    <col width="20" customWidth="1" min="72" max="72"/>
-    <col width="20" customWidth="1" min="73" max="73"/>
-    <col width="20" customWidth="1" min="74" max="74"/>
-    <col width="20" customWidth="1" min="75" max="75"/>
-    <col width="20" customWidth="1" min="76" max="76"/>
-    <col width="20" customWidth="1" min="77" max="77"/>
-    <col width="20" customWidth="1" min="78" max="78"/>
-    <col width="20" customWidth="1" min="79" max="79"/>
-    <col width="20" customWidth="1" min="80" max="80"/>
-    <col width="20" customWidth="1" min="81" max="81"/>
-    <col width="20" customWidth="1" min="82" max="82"/>
-    <col width="20" customWidth="1" min="83" max="83"/>
-    <col width="20" customWidth="1" min="84" max="84"/>
-    <col width="20" customWidth="1" min="85" max="85"/>
-    <col width="20" customWidth="1" min="86" max="86"/>
-    <col width="20" customWidth="1" min="87" max="87"/>
-    <col width="20" customWidth="1" min="88" max="88"/>
-    <col width="20" customWidth="1" min="89" max="89"/>
-    <col width="20" customWidth="1" min="90" max="90"/>
-    <col width="20" customWidth="1" min="91" max="91"/>
-    <col width="20" customWidth="1" min="92" max="92"/>
-    <col width="20" customWidth="1" min="93" max="93"/>
-    <col width="20" customWidth="1" min="94" max="94"/>
-    <col width="20" customWidth="1" min="95" max="95"/>
-    <col width="20" customWidth="1" min="96" max="96"/>
-    <col width="20" customWidth="1" min="97" max="97"/>
-    <col width="20" customWidth="1" min="98" max="98"/>
-    <col width="20" customWidth="1" min="99" max="99"/>
+    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="12" max="12"/>
+    <col width="25" customWidth="1" min="13" max="13"/>
+    <col width="25" customWidth="1" min="14" max="14"/>
+    <col width="25" customWidth="1" min="15" max="15"/>
+    <col width="25" customWidth="1" min="16" max="16"/>
+    <col width="25" customWidth="1" min="17" max="17"/>
+    <col width="25" customWidth="1" min="18" max="18"/>
+    <col width="25" customWidth="1" min="19" max="19"/>
+    <col width="25" customWidth="1" min="20" max="20"/>
+    <col width="25" customWidth="1" min="21" max="21"/>
+    <col width="25" customWidth="1" min="22" max="22"/>
+    <col width="25" customWidth="1" min="23" max="23"/>
+    <col width="25" customWidth="1" min="24" max="24"/>
+    <col width="25" customWidth="1" min="25" max="25"/>
+    <col width="25" customWidth="1" min="26" max="26"/>
+    <col width="25" customWidth="1" min="27" max="27"/>
+    <col width="25" customWidth="1" min="28" max="28"/>
+    <col width="25" customWidth="1" min="29" max="29"/>
+    <col width="25" customWidth="1" min="30" max="30"/>
+    <col width="25" customWidth="1" min="31" max="31"/>
+    <col width="25" customWidth="1" min="32" max="32"/>
+    <col width="25" customWidth="1" min="33" max="33"/>
+    <col width="25" customWidth="1" min="34" max="34"/>
+    <col width="25" customWidth="1" min="35" max="35"/>
+    <col width="25" customWidth="1" min="36" max="36"/>
+    <col width="25" customWidth="1" min="37" max="37"/>
+    <col width="25" customWidth="1" min="38" max="38"/>
+    <col width="25" customWidth="1" min="39" max="39"/>
+    <col width="25" customWidth="1" min="40" max="40"/>
+    <col width="25" customWidth="1" min="41" max="41"/>
+    <col width="25" customWidth="1" min="42" max="42"/>
+    <col width="25" customWidth="1" min="43" max="43"/>
+    <col width="25" customWidth="1" min="44" max="44"/>
+    <col width="25" customWidth="1" min="45" max="45"/>
+    <col width="25" customWidth="1" min="46" max="46"/>
+    <col width="25" customWidth="1" min="47" max="47"/>
+    <col width="25" customWidth="1" min="48" max="48"/>
+    <col width="25" customWidth="1" min="49" max="49"/>
+    <col width="25" customWidth="1" min="50" max="50"/>
+    <col width="25" customWidth="1" min="51" max="51"/>
+    <col width="25" customWidth="1" min="52" max="52"/>
+    <col width="25" customWidth="1" min="53" max="53"/>
+    <col width="25" customWidth="1" min="54" max="54"/>
+    <col width="25" customWidth="1" min="55" max="55"/>
+    <col width="25" customWidth="1" min="56" max="56"/>
+    <col width="25" customWidth="1" min="57" max="57"/>
+    <col width="25" customWidth="1" min="58" max="58"/>
+    <col width="25" customWidth="1" min="59" max="59"/>
+    <col width="25" customWidth="1" min="60" max="60"/>
+    <col width="25" customWidth="1" min="61" max="61"/>
+    <col width="25" customWidth="1" min="62" max="62"/>
+    <col width="25" customWidth="1" min="63" max="63"/>
+    <col width="25" customWidth="1" min="64" max="64"/>
+    <col width="25" customWidth="1" min="65" max="65"/>
+    <col width="25" customWidth="1" min="66" max="66"/>
+    <col width="25" customWidth="1" min="67" max="67"/>
+    <col width="25" customWidth="1" min="68" max="68"/>
+    <col width="25" customWidth="1" min="69" max="69"/>
+    <col width="25" customWidth="1" min="70" max="70"/>
+    <col width="25" customWidth="1" min="71" max="71"/>
+    <col width="25" customWidth="1" min="72" max="72"/>
+    <col width="25" customWidth="1" min="73" max="73"/>
+    <col width="25" customWidth="1" min="74" max="74"/>
+    <col width="25" customWidth="1" min="75" max="75"/>
+    <col width="25" customWidth="1" min="76" max="76"/>
+    <col width="25" customWidth="1" min="77" max="77"/>
+    <col width="25" customWidth="1" min="78" max="78"/>
+    <col width="25" customWidth="1" min="79" max="79"/>
+    <col width="25" customWidth="1" min="80" max="80"/>
+    <col width="25" customWidth="1" min="81" max="81"/>
+    <col width="25" customWidth="1" min="82" max="82"/>
+    <col width="25" customWidth="1" min="83" max="83"/>
+    <col width="25" customWidth="1" min="84" max="84"/>
+    <col width="25" customWidth="1" min="85" max="85"/>
+    <col width="25" customWidth="1" min="86" max="86"/>
+    <col width="25" customWidth="1" min="87" max="87"/>
+    <col width="25" customWidth="1" min="88" max="88"/>
+    <col width="25" customWidth="1" min="89" max="89"/>
+    <col width="25" customWidth="1" min="90" max="90"/>
+    <col width="25" customWidth="1" min="91" max="91"/>
+    <col width="25" customWidth="1" min="92" max="92"/>
+    <col width="25" customWidth="1" min="93" max="93"/>
+    <col width="25" customWidth="1" min="94" max="94"/>
+    <col width="25" customWidth="1" min="95" max="95"/>
+    <col width="25" customWidth="1" min="96" max="96"/>
+    <col width="25" customWidth="1" min="97" max="97"/>
+    <col width="25" customWidth="1" min="98" max="98"/>
+    <col width="25" customWidth="1" min="99" max="99"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7537,22 +7537,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02</v>
+        <v>0.034</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -7573,25 +7573,25 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.011</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02</v>
+        <v>0.023</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -7614,7 +7614,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.057</v>
+        <v>0.067</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.029</v>
+        <v>0.067</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -7673,16 +7673,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="D4" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -7691,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="H4" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -7718,10 +7718,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.024</v>
+        <v>0.065</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.024</v>
+        <v>0.032</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -7741,25 +7741,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="D5" t="n">
-        <v>0.038</v>
+        <v>0.043</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="G5" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -7786,10 +7786,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -7809,16 +7809,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.035</v>
+        <v>0.045</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -7845,25 +7845,25 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.012</v>
+        <v>0.015</v>
       </c>
       <c r="P6" t="n">
-        <v>0.035</v>
+        <v>0.061</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.012</v>
+        <v>0.015</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.012</v>
+        <v>0.015</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -7877,13 +7877,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -7892,10 +7892,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="G7" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -7925,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.065</v>
+        <v>0.067</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -7945,13 +7945,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.033</v>
+        <v>0.042</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -7966,7 +7966,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -7975,31 +7975,31 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.033</v>
+        <v>0.042</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
       <c r="O8" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="P8" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -8013,16 +8013,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.025</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.02</v>
+        <v>0.025</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8149,7 +8149,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -8161,25 +8161,25 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="F11" t="n">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
       <c r="G11" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.014</v>
+        <v>0.017</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8217,49 +8217,49 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B12" t="n">
-        <v>0.057</v>
+        <v>0.068</v>
       </c>
       <c r="C12" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="D12" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="E12" t="n">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="F12" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="G12" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="I12" t="n">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="L12" t="n">
-        <v>0.057</v>
+        <v>0.068</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="O12" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8268,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -8285,10 +8285,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>0.065</v>
+        <v>0.073</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -8300,10 +8300,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="G13" t="n">
-        <v>0.043</v>
+        <v>0.049</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -8321,10 +8321,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.049</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -8345,7 +8345,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.022</v>
+        <v>0.024</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -8353,10 +8353,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B14" t="n">
-        <v>0.024</v>
+        <v>0.04</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -8368,31 +8368,31 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.033</v>
+        <v>0.04</v>
       </c>
       <c r="G14" t="n">
-        <v>0.024</v>
+        <v>0.03</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="N14" t="n">
-        <v>0.024</v>
+        <v>0.05</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -8421,22 +8421,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05</v>
+        <v>0.062</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05</v>
+        <v>0.062</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05</v>
+        <v>0.062</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -8463,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05</v>
+        <v>0.062</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8472,16 +8472,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.05</v>
+        <v>0.062</v>
       </c>
       <c r="S15" t="n">
-        <v>0.05</v>
+        <v>0.062</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05</v>
+        <v>0.062</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -8693,16 +8693,16 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B19" t="n">
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="D19" t="n">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.065</v>
+        <v>0.077</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -8729,13 +8729,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.032</v>
+        <v>0.038</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -8747,7 +8747,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -8761,13 +8761,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.033</v>
+        <v>0.056</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -8779,10 +8779,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="H20" t="n">
-        <v>0.044</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.011</v>
+        <v>0.042</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -8815,13 +8815,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.011</v>
+        <v>0.042</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.011</v>
+        <v>0.014</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -8829,13 +8829,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -8880,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -8965,7 +8965,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -9004,7 +9004,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0.091</v>
+        <v>0.1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9237,10 +9237,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="n">
-        <v>0.091</v>
+        <v>0.1</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.091</v>
+        <v>0.1</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0.091</v>
+        <v>0.1</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -9577,7 +9577,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -9592,7 +9592,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.167</v>
+        <v>0.2</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -9645,10 +9645,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B33" t="n">
-        <v>0.037</v>
+        <v>0.045</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -9660,10 +9660,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.037</v>
+        <v>0.045</v>
       </c>
       <c r="G33" t="n">
-        <v>0.037</v>
+        <v>0.045</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -9781,10 +9781,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -9820,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0.143</v>
+        <v>0.2</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -9849,10 +9849,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -9873,13 +9873,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.125</v>
+        <v>0.167</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0.125</v>
+        <v>0.167</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -9917,7 +9917,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -9926,13 +9926,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.111</v>
+        <v>0.143</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -9980,18 +9980,18 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.111</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B38" t="n">
-        <v>0.118</v>
+        <v>0.133</v>
       </c>
       <c r="C38" t="n">
-        <v>0.118</v>
+        <v>0.133</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -10000,13 +10000,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.067</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.059</v>
+        <v>0.067</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -10665,31 +10665,31 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B48" t="n">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="C48" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="D48" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="E48" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="F48" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="G48" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -10698,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -10707,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -10719,10 +10719,10 @@
         <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>0.023</v>
+        <v>0.027</v>
       </c>
       <c r="T48" t="n">
-        <v>0.011</v>
+        <v>0.013</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -10733,10 +10733,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B49" t="n">
-        <v>0.019</v>
+        <v>0.044</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -10745,13 +10745,13 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>0.022</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -10784,13 +10784,13 @@
         <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0.019</v>
+        <v>0.022</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -10801,22 +10801,22 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.023</v>
+        <v>0.028</v>
       </c>
       <c r="E50" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.023</v>
+        <v>0.028</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -10825,16 +10825,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.008</v>
+        <v>0.019</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.046</v>
+        <v>0.056</v>
       </c>
       <c r="L50" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>0.008</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>0.023</v>
+        <v>0.028</v>
       </c>
     </row>
     <row r="51">
@@ -11005,40 +11005,40 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>0.011</v>
+        <v>0.044</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="D53" t="n">
-        <v>0.011</v>
+        <v>0.029</v>
       </c>
       <c r="E53" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.022</v>
+        <v>0.029</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>0.011</v>
+        <v>0.029</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -11047,10 +11047,10 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0.032</v>
+        <v>0.044</v>
       </c>
       <c r="P53" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -11068,27 +11068,27 @@
         <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>0.011</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B54" t="n">
-        <v>0.037</v>
+        <v>0.045</v>
       </c>
       <c r="C54" t="n">
-        <v>0.037</v>
+        <v>0.045</v>
       </c>
       <c r="D54" t="n">
-        <v>0.037</v>
+        <v>0.045</v>
       </c>
       <c r="E54" t="n">
-        <v>0.037</v>
+        <v>0.045</v>
       </c>
       <c r="F54" t="n">
-        <v>0.037</v>
+        <v>0.091</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -11136,18 +11136,18 @@
         <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>0.037</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B55" t="n">
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>0.167</v>
+        <v>0.25</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R55" t="n">
         <v>0</v>
@@ -11209,13 +11209,13 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B56" t="n">
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0.033</v>
+        <v>0.042</v>
       </c>
       <c r="D56" t="n">
         <v>0</v>
@@ -11224,16 +11224,16 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.033</v>
+        <v>0.042</v>
       </c>
       <c r="G56" t="n">
-        <v>0.033</v>
+        <v>0.042</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -11242,10 +11242,10 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="M56" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -11277,13 +11277,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B57" t="n">
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0.067</v>
+        <v>0.077</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -11292,10 +11292,10 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.067</v>
+        <v>0.077</v>
       </c>
       <c r="G57" t="n">
-        <v>0.067</v>
+        <v>0.077</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -11304,7 +11304,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0.067</v>
+        <v>0.077</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -11325,7 +11325,7 @@
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.067</v>
+        <v>0.077</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -11345,7 +11345,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.067</v>
+        <v>0.077</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
@@ -11413,13 +11413,13 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B59" t="n">
         <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.067</v>
+        <v>0.083</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -11455,7 +11455,7 @@
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0.067</v>
+        <v>0.083</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="S59" t="n">
-        <v>0.067</v>
+        <v>0.083</v>
       </c>
       <c r="T59" t="n">
         <v>0</v>
@@ -11481,19 +11481,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="C60" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="D60" t="n">
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.037</v>
       </c>
       <c r="F60" t="n">
         <v>0</v>
@@ -11505,16 +11505,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="J60" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -11532,10 +11532,10 @@
         <v>0</v>
       </c>
       <c r="R60" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="S60" t="n">
-        <v>0.031</v>
+        <v>0.037</v>
       </c>
       <c r="T60" t="n">
         <v>0</v>
@@ -11549,13 +11549,13 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B61" t="n">
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.067</v>
+        <v>0.083</v>
       </c>
       <c r="D61" t="n">
         <v>0</v>
@@ -11567,7 +11567,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0.067</v>
+        <v>0.083</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0.067</v>
+        <v>0.083</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -11617,13 +11617,13 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B62" t="n">
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>0.04</v>
+        <v>0.056</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -11644,7 +11644,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0.04</v>
+        <v>0.056</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -11662,7 +11662,7 @@
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0.04</v>
+        <v>0.056</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -11685,10 +11685,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B63" t="n">
-        <v>0.056</v>
+        <v>0.062</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -11697,19 +11697,19 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -11718,13 +11718,13 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -11745,7 +11745,7 @@
         <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -11774,7 +11774,7 @@
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.048</v>
+        <v>0.059</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>0.048</v>
+        <v>0.059</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -11821,13 +11821,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B65" t="n">
-        <v>0.017</v>
+        <v>0.047</v>
       </c>
       <c r="C65" t="n">
-        <v>0.033</v>
+        <v>0.047</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -11842,10 +11842,10 @@
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.017</v>
+        <v>0.047</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.023</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -11857,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>0.017</v>
+        <v>0.023</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -11866,7 +11866,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>0.017</v>
+        <v>0.047</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -11889,13 +11889,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B66" t="n">
         <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>0.05</v>
+        <v>0.067</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0.05</v>
+        <v>0.067</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
@@ -11957,13 +11957,13 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67" t="n">
-        <v>0.077</v>
+        <v>0.091</v>
       </c>
       <c r="C67" t="n">
-        <v>0.077</v>
+        <v>0.091</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -11975,7 +11975,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.091</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -12025,10 +12025,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B68" t="n">
-        <v>0.022</v>
+        <v>0.056</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -12043,7 +12043,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0.022</v>
+        <v>0.028</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -12076,13 +12076,13 @@
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0.022</v>
+        <v>0.028</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0.022</v>
+        <v>0.028</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -12161,19 +12161,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B70" t="n">
-        <v>0.056</v>
+        <v>0.062</v>
       </c>
       <c r="C70" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="D70" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="E70" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="P70" t="n">
         <v>0</v>
@@ -12218,7 +12218,7 @@
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0.028</v>
+        <v>0.031</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -12238,10 +12238,10 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="E71" t="n">
-        <v>0.094</v>
+        <v>0.1</v>
       </c>
       <c r="F71" t="n">
         <v>0</v>
@@ -12250,7 +12250,7 @@
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="P71" t="n">
         <v>0</v>
@@ -12292,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="72">
@@ -12365,7 +12365,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -12377,7 +12377,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
@@ -12386,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.024</v>
+        <v>0.027</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -12422,7 +12422,7 @@
         <v>0</v>
       </c>
       <c r="T73" t="n">
-        <v>0.049</v>
+        <v>0.054</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
@@ -12569,7 +12569,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.034</v>
+        <v>0.038</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.077</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -12626,7 +12626,7 @@
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -12637,7 +12637,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -12649,10 +12649,10 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.103</v>
       </c>
       <c r="F77" t="n">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -12694,7 +12694,7 @@
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0.059</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
@@ -12773,7 +12773,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -12809,13 +12809,13 @@
         <v>0</v>
       </c>
       <c r="M79" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="P79" t="n">
         <v>0</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -12977,10 +12977,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B82" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -13028,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>0.01</v>
+        <v>0.012</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
@@ -13113,7 +13113,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -13134,7 +13134,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.05</v>
+        <v>0.062</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -13181,19 +13181,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B85" t="n">
-        <v>0.033</v>
+        <v>0.038</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.033</v>
+        <v>0.038</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
@@ -13317,10 +13317,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B87" t="n">
-        <v>0.038</v>
+        <v>0.047</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -13329,7 +13329,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
@@ -13353,13 +13353,13 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0.038</v>
+        <v>0.047</v>
       </c>
       <c r="P87" t="n">
         <v>0</v>
@@ -13374,7 +13374,7 @@
         <v>0</v>
       </c>
       <c r="T87" t="n">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
       <c r="U87" t="n">
         <v>0</v>
@@ -13385,10 +13385,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B88" t="n">
-        <v>0.059</v>
+        <v>0.067</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -13409,16 +13409,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="J88" t="n">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -13427,7 +13427,7 @@
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>0.059</v>
+        <v>0.067</v>
       </c>
       <c r="P88" t="n">
         <v>0</v>
@@ -13439,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="S88" t="n">
-        <v>0.029</v>
+        <v>0.033</v>
       </c>
       <c r="T88" t="n">
         <v>0</v>
@@ -13589,13 +13589,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B91" t="n">
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>0.04</v>
+        <v>0.051</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -13637,7 +13637,7 @@
         <v>0</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.02</v>
+        <v>0.026</v>
       </c>
       <c r="R91" t="n">
         <v>0</v>
@@ -13657,13 +13657,13 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B92" t="n">
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.026</v>
+        <v>0.031</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -13708,7 +13708,7 @@
         <v>0</v>
       </c>
       <c r="R92" t="n">
-        <v>0.013</v>
+        <v>0.016</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -13793,7 +13793,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -13929,13 +13929,13 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B96" t="n">
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.109</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -13965,7 +13965,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="n">
-        <v>0.017</v>
+        <v>0.043</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -13977,7 +13977,7 @@
         <v>0</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.017</v>
+        <v>0.043</v>
       </c>
       <c r="R96" t="n">
         <v>0</v>
@@ -13997,13 +13997,13 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B97" t="n">
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0.038</v>
+        <v>0.045</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -14060,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>0.019</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="98">
@@ -14133,25 +14133,25 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B99" t="n">
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="D99" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="E99" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="F99" t="n">
-        <v>0.034</v>
+        <v>0.036</v>
       </c>
       <c r="G99" t="n">
-        <v>0.034</v>
+        <v>0.055</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -14178,13 +14178,13 @@
         <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
       <c r="R99" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
@@ -14196,7 +14196,7 @@
         <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>0.017</v>
+        <v>0.018</v>
       </c>
     </row>
   </sheetData>

--- a/Андреєв_етап3.xlsx
+++ b/Андреєв_етап3.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Абсолютна частота" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Відносна частота" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Кореляція" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5232,4 +5233,1006 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="15" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="15" customWidth="1" min="7" max="7"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="9" max="9"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="15" customWidth="1" min="12" max="12"/>
+    <col width="15" customWidth="1" min="13" max="13"/>
+    <col width="15" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="15" customWidth="1" min="16" max="16"/>
+    <col width="15" customWidth="1" min="17" max="17"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
+    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="20" max="20"/>
+    <col width="15" customWidth="1" min="21" max="21"/>
+    <col width="15" customWidth="1" min="22" max="22"/>
+    <col width="15" customWidth="1" min="23" max="23"/>
+    <col width="15" customWidth="1" min="24" max="24"/>
+    <col width="15" customWidth="1" min="25" max="25"/>
+    <col width="15" customWidth="1" min="26" max="26"/>
+    <col width="15" customWidth="1" min="27" max="27"/>
+    <col width="15" customWidth="1" min="28" max="28"/>
+    <col width="15" customWidth="1" min="29" max="29"/>
+    <col width="15" customWidth="1" min="30" max="30"/>
+    <col width="15" customWidth="1" min="31" max="31"/>
+    <col width="15" customWidth="1" min="32" max="32"/>
+    <col width="15" customWidth="1" min="33" max="33"/>
+    <col width="15" customWidth="1" min="34" max="34"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>автосамосвал</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>модель</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>транспортный</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>движение</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>карьер</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>работа</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>состояние</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>разгрузка</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>блок</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>пункт</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>погрузка</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>система</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>экскаватор</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>время</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>управление</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>имитационный</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>параметр</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>временить</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>скорость</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>цикл</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>граф</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>автосамосвал</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>модель</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.396</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>транспортный</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>движение</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.019</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>карьер</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.269</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>работа</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.048</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.153</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.197</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>состояние</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.162</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.326</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.214</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>разгрузка</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.232</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.114</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.034</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.254</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>блок</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.151</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.186</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.151</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>пункт</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.223</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.238</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.469</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.293</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>погрузка</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.111</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.148</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.095</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.146</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>система</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.266</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-0.413</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.145</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-0.327</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-0.151</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-0.252</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>экскаватор</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.679</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.424</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.198</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.276</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-0.174</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-0.109</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-0.043</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.031</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>время</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.108</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.311</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.265</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.437</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-0.109</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.119</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>управление</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.342</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.047</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.118</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.271</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.509</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.162</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-0.014</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-0.111</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.177</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-0.109</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>имитационный</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.331</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.051</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.135</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-0.321</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-0.232</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-0.245</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.253</v>
+      </c>
+      <c r="O17" t="n">
+        <v>-0.307</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>параметр</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.024</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.113</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.177</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.163</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-0.061</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.186</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-0.022</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.041</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="P18" t="n">
+        <v>-0.165</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-0.223</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>временить</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.081</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-0.241</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.197</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.296</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.195</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-0.007</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.058</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-0.089</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-0.241</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>скорость</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.229</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.287</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.212</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.339</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.224</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-0.08400000000000001</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.157</v>
+      </c>
+      <c r="L20" t="n">
+        <v>-0.098</v>
+      </c>
+      <c r="M20" t="n">
+        <v>-0.236</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="P20" t="n">
+        <v>-0.172</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>-0.219</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>цикл</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.377</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.07199999999999999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-0.07099999999999999</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.176</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="P21" t="n">
+        <v>-0.154</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>-0.213</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.552</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="T21" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>граф</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.473</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.183</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.206</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-0.08599999999999999</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-0.08799999999999999</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.317</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-0.188</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-0.111</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="R22" t="n">
+        <v>-0.123</v>
+      </c>
+      <c r="S22" t="n">
+        <v>-0.259</v>
+      </c>
+      <c r="T22" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="U22" t="n">
+        <v>-0.164</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>